--- a/手机IP列表.xlsx
+++ b/手机IP列表.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="25980" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,45 +47,388 @@
     <t>38.213.193.104</t>
   </si>
   <si>
-    <t>109.176.203.53</t>
-  </si>
-  <si>
     <t>Fs_UK1</t>
   </si>
   <si>
     <t>ab123456</t>
   </si>
+  <si>
+    <t>109.176.203.53</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,21 +451,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,39 +1045,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -432,10 +1090,10 @@
         <v>6051</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,19 +1101,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>6051</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/手机IP列表.xlsx
+++ b/手机IP列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25980" windowHeight="11520"/>
+    <workbookView windowWidth="24960" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>手机编号</t>
   </si>
@@ -44,16 +44,142 @@
     <t>密码</t>
   </si>
   <si>
+    <t>38.213.193.13</t>
+  </si>
+  <si>
+    <t>Fs_UK1</t>
+  </si>
+  <si>
+    <t>ab123456</t>
+  </si>
+  <si>
+    <t>88.216.241.90</t>
+  </si>
+  <si>
+    <t>88.216.243.48</t>
+  </si>
+  <si>
+    <t>109.176.203.24</t>
+  </si>
+  <si>
+    <t>82.23.148.21</t>
+  </si>
+  <si>
+    <t>82.22.176.48</t>
+  </si>
+  <si>
+    <t>149.40.70.3</t>
+  </si>
+  <si>
+    <t>109.176.203.232</t>
+  </si>
+  <si>
+    <t>82.23.148.122</t>
+  </si>
+  <si>
+    <t>88.216.243.214</t>
+  </si>
+  <si>
+    <t>88.216.242.4</t>
+  </si>
+  <si>
+    <t>82.23.148.109</t>
+  </si>
+  <si>
+    <t>88.216.243.14</t>
+  </si>
+  <si>
     <t>38.213.193.104</t>
   </si>
   <si>
-    <t>Fs_UK1</t>
-  </si>
-  <si>
-    <t>ab123456</t>
+    <t>109.176.203.181</t>
+  </si>
+  <si>
+    <t>82.23.148.116</t>
+  </si>
+  <si>
+    <t>88.216.242.210</t>
+  </si>
+  <si>
+    <t>82.23.148.150</t>
+  </si>
+  <si>
+    <t>109.176.203.147</t>
+  </si>
+  <si>
+    <t>88.216.243.224</t>
+  </si>
+  <si>
+    <t>38.213.193.68</t>
   </si>
   <si>
     <t>109.176.203.53</t>
+  </si>
+  <si>
+    <t>88.216.243.11</t>
+  </si>
+  <si>
+    <t>149.40.76.130</t>
+  </si>
+  <si>
+    <t>88.216.242.215</t>
+  </si>
+  <si>
+    <t>88.216.243.47</t>
+  </si>
+  <si>
+    <t>88.216.242.138</t>
+  </si>
+  <si>
+    <t>82.23.148.145</t>
+  </si>
+  <si>
+    <t>88.216.245.155</t>
+  </si>
+  <si>
+    <t>88.216.243.190</t>
+  </si>
+  <si>
+    <t>82.23.148.27</t>
+  </si>
+  <si>
+    <t>82.23.148.106</t>
+  </si>
+  <si>
+    <t>88.216.243.45</t>
+  </si>
+  <si>
+    <t>88.216.242.131</t>
+  </si>
+  <si>
+    <t>88.216.241.195</t>
+  </si>
+  <si>
+    <t>88.216.247.42</t>
+  </si>
+  <si>
+    <t>88.216.241.172</t>
+  </si>
+  <si>
+    <t>88.216.243.241</t>
+  </si>
+  <si>
+    <t>82.23.148.134</t>
+  </si>
+  <si>
+    <t>88.216.243.205</t>
+  </si>
+  <si>
+    <t>82.23.148.114</t>
+  </si>
+  <si>
+    <t>82.23.148.8</t>
+  </si>
+  <si>
+    <t>38.213.193.176</t>
+  </si>
+  <si>
+    <t>88.216.247.113</t>
   </si>
 </sst>
 </file>
@@ -83,11 +209,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -552,19 +677,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,7 +698,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -705,6 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,17 +1177,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1082,12 +1209,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6051</v>
+        <v>6050</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1100,16 +1229,730 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6051</v>
+        <v>6050</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>6050</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>6050</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>6050</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>6050</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>6050</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>6050</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>6050</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>6050</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>6050</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>6050</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>6050</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>6050</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>6050</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>6050</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>6050</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>6050</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>6050</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>6050</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>6050</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>6050</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>6050</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>6050</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>6050</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>6050</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>6050</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>6050</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>6050</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>6050</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>6050</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>6050</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>6050</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>6050</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>6050</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>6050</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>6050</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>6050</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>6050</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>6050</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>6050</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>6050</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
         <v>7</v>
       </c>
     </row>

--- a/手机IP列表.xlsx
+++ b/手机IP列表.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24960" windowHeight="12015"/>
+    <workbookView windowWidth="25755" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>手机编号</t>
   </si>
@@ -44,7 +44,7 @@
     <t>密码</t>
   </si>
   <si>
-    <t>38.213.193.13</t>
+    <t>38.213.193.118:6051</t>
   </si>
   <si>
     <t>Fs_UK1</t>
@@ -53,133 +53,16 @@
     <t>ab123456</t>
   </si>
   <si>
-    <t>88.216.241.90</t>
+    <t>149.40.76.73:6051</t>
   </si>
   <si>
-    <t>88.216.243.48</t>
+    <t>149.40.76.186:6051</t>
   </si>
   <si>
-    <t>109.176.203.24</t>
+    <t>149.40.76.26:6051</t>
   </si>
   <si>
-    <t>82.23.148.21</t>
-  </si>
-  <si>
-    <t>82.22.176.48</t>
-  </si>
-  <si>
-    <t>149.40.70.3</t>
-  </si>
-  <si>
-    <t>109.176.203.232</t>
-  </si>
-  <si>
-    <t>82.23.148.122</t>
-  </si>
-  <si>
-    <t>88.216.243.214</t>
-  </si>
-  <si>
-    <t>88.216.242.4</t>
-  </si>
-  <si>
-    <t>82.23.148.109</t>
-  </si>
-  <si>
-    <t>88.216.243.14</t>
-  </si>
-  <si>
-    <t>38.213.193.104</t>
-  </si>
-  <si>
-    <t>109.176.203.181</t>
-  </si>
-  <si>
-    <t>82.23.148.116</t>
-  </si>
-  <si>
-    <t>88.216.242.210</t>
-  </si>
-  <si>
-    <t>82.23.148.150</t>
-  </si>
-  <si>
-    <t>109.176.203.147</t>
-  </si>
-  <si>
-    <t>88.216.243.224</t>
-  </si>
-  <si>
-    <t>38.213.193.68</t>
-  </si>
-  <si>
-    <t>109.176.203.53</t>
-  </si>
-  <si>
-    <t>88.216.243.11</t>
-  </si>
-  <si>
-    <t>149.40.76.130</t>
-  </si>
-  <si>
-    <t>88.216.242.215</t>
-  </si>
-  <si>
-    <t>88.216.243.47</t>
-  </si>
-  <si>
-    <t>88.216.242.138</t>
-  </si>
-  <si>
-    <t>82.23.148.145</t>
-  </si>
-  <si>
-    <t>88.216.245.155</t>
-  </si>
-  <si>
-    <t>88.216.243.190</t>
-  </si>
-  <si>
-    <t>82.23.148.27</t>
-  </si>
-  <si>
-    <t>82.23.148.106</t>
-  </si>
-  <si>
-    <t>88.216.243.45</t>
-  </si>
-  <si>
-    <t>88.216.242.131</t>
-  </si>
-  <si>
-    <t>88.216.241.195</t>
-  </si>
-  <si>
-    <t>88.216.247.42</t>
-  </si>
-  <si>
-    <t>88.216.241.172</t>
-  </si>
-  <si>
-    <t>88.216.243.241</t>
-  </si>
-  <si>
-    <t>82.23.148.134</t>
-  </si>
-  <si>
-    <t>88.216.243.205</t>
-  </si>
-  <si>
-    <t>82.23.148.114</t>
-  </si>
-  <si>
-    <t>82.23.148.8</t>
-  </si>
-  <si>
-    <t>38.213.193.176</t>
-  </si>
-  <si>
-    <t>88.216.247.113</t>
+    <t>109.176.203.162:6051</t>
   </si>
 </sst>
 </file>
@@ -1176,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1210,13 +1093,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1227,13 +1110,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1244,13 +1127,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1261,13 +1144,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1278,13 +1161,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1293,668 +1176,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>6050</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>6050</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>6050</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>6050</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>6050</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>6050</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>6050</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>6050</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>6050</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>6050</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>6050</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>6050</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>6050</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>6050</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>6050</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>6050</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>6050</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>6050</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>6050</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>6050</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
-        <v>6050</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>6050</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>6050</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>6050</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>6050</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>6050</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>6050</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>6050</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>6050</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>6050</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
-        <v>6050</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
-        <v>6050</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>6050</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>6050</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>6050</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>6050</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>6050</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>6050</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>6050</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
